--- a/asset/dokumen/format-upload.xlsx
+++ b/asset/dokumen/format-upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simpegbusel\asset\dokumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipeka\asset\dokumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,37 +24,439 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
+  <si>
+    <t>NIP</t>
+  </si>
+  <si>
+    <t>SKPD</t>
+  </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Nip Baru</t>
-  </si>
-  <si>
-    <t>Nama Pegawai</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tgl Lahir</t>
+  </si>
+  <si>
+    <t>TMT CPNS</t>
+  </si>
+  <si>
+    <t>TMT PNS</t>
+  </si>
+  <si>
+    <t>Jk</t>
   </si>
   <si>
     <t>Agama</t>
   </si>
   <si>
-    <t>Unit Kerja</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA AMIRI.SH,MH </t>
+  </si>
+  <si>
+    <t>HAIDA,S.Pt</t>
+  </si>
+  <si>
+    <t>NURIANI</t>
+  </si>
+  <si>
+    <t>LA ODE FIRMAN HAMZA,S.Pd.MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASIDUN,S,Sos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA HASAN, SE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZABARUDIN, SP </t>
+  </si>
+  <si>
+    <t>WA LIYANA, SE</t>
+  </si>
+  <si>
+    <t>RIKA WULANDA, S.Kom, MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NITAWATI, S.STP </t>
+  </si>
+  <si>
+    <t>AHMAD JAMALUDDIN, SH., MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA ODE HASIYNA, S.IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASFA,S.IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURIANI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA ODE SARLINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIEN INDRIANI </t>
+  </si>
+  <si>
+    <t>MERLI WIDIASTUTI</t>
+  </si>
+  <si>
+    <t>LA ODE DIRHAM, S.Sos</t>
+  </si>
+  <si>
+    <t>ENDY NUR PRATOMO, S.IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19591231 198601 1 039 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19701231 200502 2 012 </t>
+  </si>
+  <si>
+    <t>19651231 198601 2 013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19730108 200502 1 001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19621231 198303 1 576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19650816 198703 1 014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19841005 201101 1 015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19821007 201101 2 006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19831016 201001 2 006 </t>
+  </si>
+  <si>
+    <t>19900710 201206 2 001</t>
+  </si>
+  <si>
+    <t>19850411 201403 1 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19680721 199702 2 005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19700303 199903 2 007 </t>
+  </si>
+  <si>
+    <t>19850202 201212 2 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19721119 201212 2 001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19850326 201407 2 001 </t>
+  </si>
+  <si>
+    <t>19860323 201212 2 002</t>
+  </si>
+  <si>
+    <t>19661231 201408 1 001</t>
+  </si>
+  <si>
+    <t>19900626 201402 1 001</t>
+  </si>
+  <si>
+    <t>Buton,</t>
+  </si>
+  <si>
+    <t>Baubau</t>
+  </si>
+  <si>
+    <t>MAWASANGKA</t>
+  </si>
+  <si>
+    <t>Buton</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Lamena</t>
+  </si>
+  <si>
+    <t>Buton Selatan</t>
+  </si>
+  <si>
+    <t>Nganganaumala</t>
+  </si>
+  <si>
+    <t>31-12-1970</t>
+  </si>
+  <si>
+    <t>31-12-1965</t>
+  </si>
+  <si>
+    <t>08/01/1973</t>
+  </si>
+  <si>
+    <t>31-12-1962</t>
+  </si>
+  <si>
+    <t>16-08-1965</t>
+  </si>
+  <si>
+    <t>05-10-1984</t>
+  </si>
+  <si>
+    <t>07-10-1982</t>
+  </si>
+  <si>
+    <t>16-10-1983</t>
+  </si>
+  <si>
+    <t>10-07-1990</t>
+  </si>
+  <si>
+    <t>21-07-1968</t>
+  </si>
+  <si>
+    <t>03-03-1970</t>
+  </si>
+  <si>
+    <t>02-02-1985</t>
+  </si>
+  <si>
+    <t>19-11-1972</t>
+  </si>
+  <si>
+    <t>26-03-1985</t>
+  </si>
+  <si>
+    <t>01-01-1986</t>
+  </si>
+  <si>
+    <t>01-02-2005</t>
+  </si>
+  <si>
+    <t>01-03-1983</t>
+  </si>
+  <si>
+    <t>01-01-2011</t>
+  </si>
+  <si>
+    <t>01-01-2010</t>
+  </si>
+  <si>
+    <t>01-06-2012</t>
+  </si>
+  <si>
+    <t>01-02-1997</t>
+  </si>
+  <si>
+    <t>01-03-1999</t>
+  </si>
+  <si>
+    <t>01-12-2012</t>
+  </si>
+  <si>
+    <t>01-07-2014</t>
+  </si>
+  <si>
+    <t>01-10-1987</t>
+  </si>
+  <si>
+    <t>01-02-2006</t>
+  </si>
+  <si>
+    <t>01-12-1987</t>
+  </si>
+  <si>
+    <t>01-06-2013</t>
+  </si>
+  <si>
+    <t>01-05-1998</t>
+  </si>
+  <si>
+    <t>01-04-2000</t>
+  </si>
+  <si>
+    <t>01-04-2014</t>
+  </si>
+  <si>
+    <t>01-04-2016</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>BADAN KEPEGAWAIAN DAN PENGEMBANGAN SDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs. LA ODE SADIKIN </t>
+  </si>
+  <si>
+    <t>LA HARDIN, S. Pd, MM</t>
+  </si>
+  <si>
+    <t>MUCHSIN BIL TAUFIK,S.Hut</t>
+  </si>
+  <si>
+    <t>MUHAMAD NASAR, SE</t>
+  </si>
+  <si>
+    <t>HJ.HAESINI ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>BADIHI, S.Pd</t>
+  </si>
+  <si>
+    <t>Drs. BAHARUDIN</t>
+  </si>
+  <si>
+    <t>Drs.SAHARUDIN AGUS</t>
+  </si>
+  <si>
+    <t>GAFARUDIN,SH</t>
+  </si>
+  <si>
+    <t>ERIYANI MAULANA,S.Sos</t>
+  </si>
+  <si>
+    <t>SRIWANI</t>
+  </si>
+  <si>
+    <t>YETI FAU,S.IP</t>
+  </si>
+  <si>
+    <t>HASAN</t>
+  </si>
+  <si>
+    <t>Drs. AHMAD BASRI, AP</t>
+  </si>
+  <si>
+    <t>ARIYANTI</t>
+  </si>
+  <si>
+    <t>19590119 199803 1 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buton, </t>
+  </si>
+  <si>
+    <t>19751231 200312 1 011</t>
+  </si>
+  <si>
+    <t>19710707 200003 1 008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baubau, </t>
+  </si>
+  <si>
+    <t>19631215 199303 1 006</t>
+  </si>
+  <si>
+    <t>BAUBAU</t>
+  </si>
+  <si>
+    <t>15-12-1963</t>
+  </si>
+  <si>
+    <t>19630722 198503 2 009</t>
+  </si>
+  <si>
+    <t>Pungkoihu,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22/07/1963</t>
+  </si>
+  <si>
+    <t>19710612 199408 1 001</t>
+  </si>
+  <si>
+    <t>19621231 198403 1 118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamana, </t>
+  </si>
+  <si>
+    <t>19601331 199903 1 013</t>
+  </si>
+  <si>
+    <t>Baubau,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31/12/1960</t>
+  </si>
+  <si>
+    <t>19651231 200604 1 013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowu-lowu, </t>
+  </si>
+  <si>
+    <t>19800305 200212 2 007</t>
+  </si>
+  <si>
+    <t>Boepinang,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/05/1980</t>
+  </si>
+  <si>
+    <t>19631010 198603 2 023</t>
+  </si>
+  <si>
+    <t>19790701 200701 2 010</t>
+  </si>
+  <si>
+    <t>19721231 200604 1 088</t>
+  </si>
+  <si>
+    <t>19740509 199311 1 001</t>
+  </si>
+  <si>
+    <t>19630212 198603 2 010</t>
+  </si>
+  <si>
+    <t>Ujung Pandang,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watuputi, </t>
+  </si>
+  <si>
+    <t>01 Februari 2005</t>
+  </si>
+  <si>
+    <t>01-03-1993</t>
+  </si>
+  <si>
+    <t>01-09-1994</t>
+  </si>
+  <si>
+    <t>BADAN KESATUAN BANGSA DAN PEMBINAAN POLITIK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +464,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,15 +509,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,47 +887,1143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="1">
         <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13">
+        <v>21915</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="13">
+        <v>40912</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="13">
+        <v>40912</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="13">
+        <v>31494</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="13">
+        <v>21204</v>
+      </c>
+      <c r="F22" s="13">
+        <v>35798</v>
+      </c>
+      <c r="G22" s="13">
+        <v>36165</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="13">
+        <v>27759</v>
+      </c>
+      <c r="F23" s="16">
+        <v>37633</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="13">
+        <v>26121</v>
+      </c>
+      <c r="F24" s="13">
+        <v>36903</v>
+      </c>
+      <c r="G24" s="13">
+        <v>36894</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="13">
+        <v>31422</v>
+      </c>
+      <c r="G26" s="13">
+        <v>31422</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="13">
+        <v>26273</v>
+      </c>
+      <c r="F27" s="13">
+        <v>34342</v>
+      </c>
+      <c r="G27" s="13">
+        <v>34710</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="13">
+        <v>23011</v>
+      </c>
+      <c r="F28" s="13">
+        <v>30684</v>
+      </c>
+      <c r="G28" s="13">
+        <v>31048</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="13">
+        <v>36163</v>
+      </c>
+      <c r="G29" s="13">
+        <v>36531</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="13">
+        <v>24107</v>
+      </c>
+      <c r="F30" s="13">
+        <v>38718</v>
+      </c>
+      <c r="G30" s="13">
+        <v>39088</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="13">
+        <v>37268</v>
+      </c>
+      <c r="G31" s="13">
+        <v>38018</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="20">
+        <v>23294</v>
+      </c>
+      <c r="F32" s="13">
+        <v>31415</v>
+      </c>
+      <c r="G32" s="13">
+        <v>31789</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="13">
+        <v>35437</v>
+      </c>
+      <c r="F33" s="13">
+        <v>39083</v>
+      </c>
+      <c r="G33" s="13">
+        <v>39455</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="13">
+        <v>27158</v>
+      </c>
+      <c r="F35" s="13">
+        <v>33980</v>
+      </c>
+      <c r="G35" s="13">
+        <v>34708</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="13">
+        <v>23054</v>
+      </c>
+      <c r="F36" s="13">
+        <v>31415</v>
+      </c>
+      <c r="G36" s="13">
+        <v>31782</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>